--- a/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -541,22 +541,22 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M4</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,52</t>
+          <t>36,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,5</t>
+          <t>14,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>287,41%</t>
+          <t>303,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>266,89%</t>
+          <t>23,34%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,88; 46,31</t>
+          <t>28,28; 45,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,54; 38,12</t>
+          <t>0,01; 25,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>191,01; 440,74</t>
+          <t>155,81; 585,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>156,89; 429,06</t>
+          <t>-0,56; 45,52</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,61</t>
+          <t>44,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,57</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>229,86%</t>
+          <t>381,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366,31%</t>
+          <t>30,33%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,57; 39,28</t>
+          <t>33,24; 54,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 46,9</t>
+          <t>0,29; 29,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>127,47; 389,98</t>
+          <t>167,21; 778,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>208,32; 637,31</t>
+          <t>1,23; 63,58</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,07</t>
+          <t>40,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>45,22</t>
+          <t>49,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>531,24%</t>
+          <t>390,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>389,18%</t>
+          <t>208,51%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,49; 60,19</t>
+          <t>21,08; 60,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,35; 59,01</t>
+          <t>26,4; 73,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>190,97; 1583,05</t>
+          <t>63,5; 2331,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>139,61; 1127,47</t>
+          <t>61,34; 731,7</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>40,2</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,13</t>
+          <t>19,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>283,56%</t>
+          <t>343,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>317,57%</t>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,24; 42,29</t>
+          <t>34,05; 45,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 41,42</t>
+          <t>9,73; 28,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>205,42; 388,98</t>
+          <t>220,95; 530,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>224,18; 452,95</t>
+          <t>15,43; 56,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P12C1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>36,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>303,66%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>23,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>35.31918350031727</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.67153984411226</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>2.732623538199099</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.201237423409585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>28,28; 45,92</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 25,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>155,81; 585,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 45,52</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>26.41843280972261</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.156870034116541</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>1.427810046047668</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.0390762640007336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>44.39554796641467</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.43556247617303</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>5.41318924010722</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4202077885158114</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>44,21</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>16,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>381,58%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>30,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>33,24; 54,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 29,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>167,21; 778,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 63,58</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>43.04767026535208</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>18.11441723535892</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>3.59221721040476</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3377103869947458</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>40,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>49,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>390,9%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>208,51%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>31.13802136780826</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.158053509184277</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.560042260739279</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.06812421821619151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>21,08; 60,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>26,4; 73,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>63,5; 2331,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>61,34; 731,7</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>53.43782035756536</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>31.41284429158912</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>7.226669779535385</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6777381969998529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>40,2</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>19,32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>343,19%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>35,42%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>40.3660409159273</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>49.40012025236427</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>3.717294547086323</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>2.040828404224746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>34,05; 45,85</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,73; 28,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>220,95; 530,78</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>15,43; 56,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>20.37926945131882</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>26.13124687770644</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.5041220489717134</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.63895658834645</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>61.38512170998091</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>74.51605062570071</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>22.61799779198502</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>7.382563631434346</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>39.01420444589756</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>19.15993675014043</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>3.170627236826071</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3499767203685109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>32.5979770828426</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.398959793311157</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>2.037078278212584</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1527515832907703</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>44.97978169262998</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>27.92537532774196</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>4.890052038058029</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5631833372048463</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
